--- a/Tables_Figures/output/table15_SR2_CAT_error_rate_anovas.xlsx
+++ b/Tables_Figures/output/table15_SR2_CAT_error_rate_anovas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Effect</t>
   </si>
@@ -24,15 +24,6 @@
   </si>
   <si>
     <t>F2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>Local Noun Number</t>
@@ -111,20 +102,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -132,60 +122,51 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="n">
+        <v>31.63</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="n">
-        <v>31.63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2" t="n">
         <v>14.194</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="n">
+        <v>0.4726</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.4726</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3" t="n">
         <v>0.08751</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="n">
+        <v>0.00982</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.00982</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4" t="n">
         <v>0.14264</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
